--- a/results/impute/diabetes.xlsx
+++ b/results/impute/diabetes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B0635-B608-A64D-961D-F11539D1424F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F795EB2-4028-B44C-85FC-6B80D7C0D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39740" yWindow="-260" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="36300" yWindow="3300" windowWidth="30240" windowHeight="17240" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,14 +142,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,14 +467,14 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M10:M11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -507,413 +510,413 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>5.6615904109925799E-2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>7.7714763789140898E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>8.0318699222266102E-2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>7.4404339531889505E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>5.4030259547905302E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.20464574508981101</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>5.7243731208935202E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.12921284883194101</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>7.9228136698008197E-2</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.11905385</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>4.65507192414404E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.18642973754304301</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.18125517483086101</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.17029584954739199</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.193406898943626</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.181260578417132</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.38133016315778701</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.18606262992657599</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.25618917346394598</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.184275644579037</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.28882268</v>
       </c>
-      <c r="M3" s="2">
-        <v>0.192761019095608</v>
+      <c r="M3" s="4">
+        <v>0.17276101909560801</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>3.3793322526545003E-2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>3.3900426050831697E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>2.6775351356794801E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>3.05666608631949E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>3.0207449233862701E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.157626891117504</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>2.78270229945486E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.100938736457429</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>2.4424109903823502E-2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.11905555</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>6.1240884283247997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.14066447880469901</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.138841230290808</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.116566053480018</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.14117180506145099</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0.13574675412040499</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.35555599123309101</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.128102257934569</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.241625658267691</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>0.11402255826091399</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.28882289999999999</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.197832989871709</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.112021199893233</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.192426788247956</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.109134369012003</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>9.4749345113988498E-2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.104049779450126</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.40179566619276602</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.104466613049433</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.21862075831085501</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.18830501056089499</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.119070075</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>9.2565535733583407E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>0.28024674153461498</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>0.32641086229605198</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>0.286172986258178</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>0.24317164437899499</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>0.26707257583944199</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>0.56575175109552001</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>0.26515574732082903</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>0.35228180530159597</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>0.31206570648815901</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>0.28886598000000002</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>0.237214547650416</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.3680028420302002E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4.7266485952085803E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.5433740889593495E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>6.4691072906317204E-2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3.2420921822320398E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.194554170979236</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.3086508642631497E-2</v>
-      </c>
-      <c r="J8" s="1">
-        <v>8.9936430664591394E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3.3800261376225098E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.11908506000000001</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3.1726094971947998E-2</v>
+      <c r="C8" s="3">
+        <v>6.20109295746398E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.6140158462022706E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.11411943250767299</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8.0830038375416802E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.7917059541610701E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.20961541460296501</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.4542344697129606E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.132888828516883</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8.2626783468075393E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.119052015</v>
+      </c>
+      <c r="M8" s="4">
+        <v>5.4845504789132103E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.13726952425730901</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.14282243411443801</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.19723733503721</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.17238151788363901</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.135164667891611</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.39382911159045902</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.13473537294085899</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.22321427395610199</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.14095237994937901</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.28889440999999999</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.13937948717839299</v>
+      <c r="C9" s="3">
+        <v>0.19656051262002899</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.189248043280237</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.215224384135558</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.208399935602012</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.18918073212307801</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.384245813969675</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.195443746012119</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.25656963793645199</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.18457300564745199</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.28882042000000002</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.17458634926694799</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>6.20109295746398E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>8.6140158462022706E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.11411943250767299</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.0830038375416802E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5.7917059541610701E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.20961541460296501</v>
-      </c>
-      <c r="I10" s="1">
-        <v>6.4542344697129606E-2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.132888828516883</v>
-      </c>
-      <c r="K10" s="1">
-        <v>8.2626783468075393E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.119052015</v>
-      </c>
-      <c r="M10" s="2">
-        <v>5.4845504789132103E-2</v>
+      <c r="C10" s="3">
+        <v>3.3680028420302002E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4.7266485952085803E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7.5433740889593495E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>6.4691072906317204E-2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.2420921822320398E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.194554170979236</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3.3086508642631497E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8.9936430664591394E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3.3800261376225098E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.11908506000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3.1726094971947998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.19656051262002899</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.189248043280237</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.215224384135558</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.208399935602012</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.18918073212307801</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.384245813969675</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.195443746012119</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.25656963793645199</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.18457300564745199</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.28882042000000002</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.17458634926694799</v>
+      <c r="C11" s="3">
+        <v>0.13726952425730901</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.14282243411443801</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.19723733503721</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.17238151788363901</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.135164667891611</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.39382911159045902</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.13473537294085899</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.22321427395610199</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.14095237994937901</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.28889440999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.13937948717839299</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
